--- a/biology/Botanique/Rosa_sicula/Rosa_sicula.xlsx
+++ b/biology/Botanique/Rosa_sicula/Rosa_sicula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa sicula, l’Églantier de Sicile ou Églantier nain[1], est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire d'Europe et d'Afrique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa sicula, l’Églantier de Sicile ou Églantier nain, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier appartenant à la section des Caninae, originaire d'Europe et d'Afrique du Nord.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbrisseau de 20 à 80 cm de haut, drageonnant, aux tiges à aiguillons courts et aux jeunes tiges rouges.
 Les feuilles imparipennées comptent de 5 à 9 folioles.
 Les fleurs, roses, de 2,5 à 3 cm de diamètre, éclosent l'été.
-Elles donnent des fruits, des cynorrhodons ovoïdes, longs de 1,3 cm, de couleur rouge conservent leurs sépales à leur extrémité[2]
+Elles donnent des fruits, des cynorrhodons ovoïdes, longs de 1,3 cm, de couleur rouge conservent leurs sépales à leur extrémité
 </t>
         </is>
       </c>
